--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,115 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06AE866-5BEE-4743-81DD-23C206200614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Numeral System = Writing system for expressing n*****</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>The most common today numeral system is d*****</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>Numbers w***** invented for counting commodities</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Numbers are not only an invention, it is a**** a discovery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>The first systematic study of numbers as absractions is usually credited to the
-Greek p***** Pythagoras and Archimedes.</t>
-  </si>
-  <si>
-    <t>philosophers</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -226,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -542,7 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
@@ -550,169 +471,220 @@
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="28.95" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Numeral System = Writing system for expressing n*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210120</v>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="12" t="n">
+        <v>210120</v>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>The most common today numeral system is d*****</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="12" t="n">
+        <v>210211</v>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Numbers w***** invented for counting commodities</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="12" t="n">
+        <v>210211</v>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Numbers are not only an invention, it is a**** a discovery</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="12" t="n">
+        <v>210211</v>
+      </c>
+    </row>
+    <row r="7" ht="41.4" customHeight="1">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>The first systematic study of numbers as absractions is usually credited to the
+Greek p***** Pythagoras and Archimedes.</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>philosophers</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="12" t="n">
+        <v>210216</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
-        <v>210120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
-        <v>210120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12">
-        <v>210211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12">
-        <v>210211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="12">
-        <v>210211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12">
-        <v>210216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+    <row r="8">
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -752,6 +724,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,9 +586,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -545,9 +613,9 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -572,9 +640,9 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -599,9 +667,9 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -626,9 +694,9 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -653,9 +721,9 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -681,14 +749,10 @@
         <v>210216</v>
       </c>
     </row>
-    <row r="8">
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
-    </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -700,7 +764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -712,7 +776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -723,7 +787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="2">
+    <row r="2" ht="28.95" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -640,7 +572,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -694,7 +626,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -721,7 +653,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7">
+    <row r="7" ht="41.4" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -752,7 +684,7 @@
     <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -764,7 +696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -776,7 +708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -787,7 +719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,41 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C5B1E-AF11-4569-B8F1-44926BD1E8B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Numeral System = Writing system for expressing n*****</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>The most common today numeral system is d*****</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Numbers w***** invented for counting commodities</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Numbers are not only an invention, it is a**** a discovery</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>The first systematic study of numbers as absractions is usually credited to the
+Greek p***** Pythagoras and Archimedes.</t>
+  </si>
+  <si>
+    <t>philosophers</t>
+  </si>
+  <si>
+    <t>s***** line that serves as abstraction for real numbers.</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>Straight line that serves as a***** for real numbers.</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,48 +238,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,229 +554,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="28.95" customHeight="1">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>264</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Numeral System = Writing system for expressing n*****</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>numbers</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>265</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>266</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>The most common today numeral system is d*****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="12" t="n">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>267</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Numbers w***** invented for counting commodities</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="12" t="n">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>268</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Numbers are not only an invention, it is a**** a discovery</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="n"/>
-      <c r="G6" s="12" t="n">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>269</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>The first systematic study of numbers as absractions is usually credited to the
-Greek p***** Pythagoras and Archimedes.</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>philosophers</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="12" t="n">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="12">
         <v>210216</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12">
+        <v>210310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="12">
+        <v>210310</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -720,6 +793,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,127 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C5B1E-AF11-4569-B8F1-44926BD1E8B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Numeral System = Writing system for expressing n*****</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>The most common today numeral system is d*****</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>Numbers w***** invented for counting commodities</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Numbers are not only an invention, it is a**** a discovery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>The first systematic study of numbers as absractions is usually credited to the
-Greek p***** Pythagoras and Archimedes.</t>
-  </si>
-  <si>
-    <t>philosophers</t>
-  </si>
-  <si>
-    <t>s***** line that serves as abstraction for real numbers.</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>Straight line that serves as a***** for real numbers.</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -235,60 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -554,210 +527,339 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="E12" pane="bottomLeft" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.95" r="2">
+      <c r="A2" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>264</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Numeral System = Writing system for expressing n*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
+        <v>210120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3">
+      <c r="A3" s="3" t="n">
+        <v>265</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>265</v>
-      </c>
-      <c r="B3" s="8">
+    <row customHeight="1" ht="27.6" r="4">
+      <c r="A4" s="3" t="n">
+        <v>266</v>
+      </c>
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
-        <v>210120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>266</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>The most common today numeral system is d*****</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="12" t="n">
+        <v>210211</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5">
+      <c r="A5" s="3" t="n">
+        <v>267</v>
+      </c>
+      <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Numbers w***** invented for counting commodities</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>267</v>
-      </c>
-      <c r="B5" s="8">
+    <row customHeight="1" ht="27.6" r="6">
+      <c r="A6" s="3" t="n">
+        <v>268</v>
+      </c>
+      <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12">
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Numbers are not only an invention, it is a**** a discovery</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>268</v>
-      </c>
-      <c r="B6" s="8">
+    <row customHeight="1" ht="41.4" r="7">
+      <c r="A7" s="3" t="n">
+        <v>269</v>
+      </c>
+      <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="12">
-        <v>210211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>269</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>The first systematic study of numbers as absractions is usually credited to the
+Greek p***** Pythagoras and Archimedes.</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>philosophers</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="12" t="n">
+        <v>210216</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8">
+      <c r="A8" t="n">
+        <v>328</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12">
-        <v>210216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>s***** line that serves as abstraction for real numbers</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>210310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9">
+      <c r="A9" t="n">
+        <v>329</v>
+      </c>
+      <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Straight line that serves as a***** for real numbers</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+    <row customHeight="1" ht="27.6" r="10">
+      <c r="A10" t="n">
+        <v>330</v>
+      </c>
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="12">
-        <v>210310</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its o***** number we get zero</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>opposite</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200310</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11">
+      <c r="A11" t="n">
+        <v>331</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its opposite number we get z*****</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200310</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -769,7 +871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -781,7 +883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -792,7 +894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
@@ -857,6 +857,7 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
-      <selection activeCell="E12" pane="bottomLeft" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="2">
+    <row r="2" ht="28.95" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -640,7 +572,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -694,7 +626,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -721,7 +653,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7">
+    <row r="7" ht="41.4" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -749,7 +681,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -775,7 +707,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -801,7 +733,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -829,7 +761,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -860,7 +792,7 @@
     <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -872,7 +804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -884,7 +816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -895,7 +827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="E12" pane="bottomLeft" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="2">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -572,7 +640,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -626,7 +694,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -653,7 +721,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -681,7 +749,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -707,7 +775,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -733,7 +801,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -761,7 +829,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -792,7 +860,7 @@
     <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -804,7 +872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -816,7 +884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -827,7 +895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +467,22 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
-      <selection activeCell="E12" pane="bottomLeft" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="13" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -580,13 +513,13 @@
           <t>Wrong Answer</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>Date Created</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="2">
+    <row r="2" ht="28.95" customHeight="1" s="11">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -609,11 +542,11 @@
         </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
+      <c r="G2" s="13" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1" s="11">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -636,11 +569,11 @@
         </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="13" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1" s="11">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -663,11 +596,11 @@
         </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="13" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1" s="11">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -690,11 +623,11 @@
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="13" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1" s="11">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -717,11 +650,11 @@
         </is>
       </c>
       <c r="F6" s="9" t="n"/>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="13" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7">
+    <row r="7" ht="41.4" customHeight="1" s="11">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -745,11 +678,11 @@
         </is>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="13" t="n">
         <v>210216</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1" s="11">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -763,7 +696,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>s***** line that serves as abstraction for real numbers</t>
+          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -771,11 +704,11 @@
           <t>straight</t>
         </is>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="13" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1" s="11">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -789,7 +722,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>Straight line that serves as a***** for real numbers</t>
+          <t>Number Line is a straight line that serves as a***** for real numbers</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -797,11 +730,11 @@
           <t>abstraction</t>
         </is>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="13" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1" s="11">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -823,13 +756,11 @@
           <t>opposite</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200310</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11">
+      <c r="G10" t="n">
+        <v>200310</v>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1" s="11">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -851,16 +782,14 @@
           <t>zero</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200310</t>
-        </is>
+      <c r="G11" t="n">
+        <v>200310</v>
       </c>
     </row>
     <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -872,7 +801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -884,7 +813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -895,7 +824,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,41 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E01A0-4718-4ABE-95BD-233A3E38BABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Numeral System = Writing system for expressing n*****</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>The most common today numeral system is d***** [0:9]</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Numbers w***** invented for counting commodities (5 packages)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Numbers are not only an invention, it is a**** a discovery</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>philosophers</t>
+  </si>
+  <si>
+    <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>Number Line is a straight line that serves as a***** for real numbers</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>If we add the number N to its o***** number we get zero</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>If we add the number N to its opposite number we get z*****</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>200421</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the possible origin of d***** system</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,50 +272,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -460,333 +589,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="13" min="7" max="7"/>
+    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="12" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="28.95" customHeight="1" s="11">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>264</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Numeral System = Writing system for expressing n*****</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>numbers</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="13" t="n">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1" s="11">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>265</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="13" t="n">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1" s="11">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>266</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>The most common today numeral system is d*****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="13" t="n">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1" s="11">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>267</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Numbers w***** invented for counting commodities</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="13" t="n">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1" s="11">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>268</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Numbers are not only an invention, it is a**** a discovery</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="n"/>
-      <c r="G6" s="13" t="n">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1" s="11">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>269</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>The first systematic study of numbers as absractions is usually credited to the
-Greek p***** Pythagoras and Archimedes.</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>philosophers</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="13" t="n">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="12">
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1" s="11">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>328</v>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>straight</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="n">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12">
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1" s="11">
-      <c r="A9" t="n">
+    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>329</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Number Line is a straight line that serves as a***** for real numbers</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
-      </c>
-      <c r="G9" s="13" t="n">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12">
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1" s="11">
-      <c r="A10" t="n">
+    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>330</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>If we add the number N to its o***** number we get zero</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>opposite</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
         <v>200310</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1" s="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>331</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>If we add the number N to its opposite number we get z*****</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
         <v>200310</v>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>345</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>346</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>347</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>348</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">
@@ -825,6 +954,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,162 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E01A0-4718-4ABE-95BD-233A3E38BABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Numeral System = Writing system for expressing n*****</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>The most common today numeral system is d***** [0:9]</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>Numbers w***** invented for counting commodities (5 packages)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Numbers are not only an invention, it is a**** a discovery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>philosophers</t>
-  </si>
-  <si>
-    <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>Number Line is a straight line that serves as a***** for real numbers</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>If we add the number N to its o***** number we get zero</t>
-  </si>
-  <si>
-    <t>opposite</t>
-  </si>
-  <si>
-    <t>If we add the number N to its opposite number we get z*****</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>Ten fingers on two h***** is the possible origin of decimal system</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>200421</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the p***** origin of decimal system</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the possible origin of d***** system</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -273,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -589,333 +459,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="28.95" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Numeral System = Writing system for expressing n*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>The most common today numeral system is d***** [0:9]</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12">
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Numbers w***** invented for counting commodities (5 packages)</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="12">
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Numbers are not only an invention, it is a**** a discovery</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" ht="41.4" customHeight="1">
+      <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12">
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>philosophers</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="12" t="n">
         <v>210216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" ht="27.6" customHeight="1">
+      <c r="A8" t="n">
         <v>328</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" t="n">
         <v>329</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Number Line is a straight line that serves as a***** for real numbers</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" ht="27.6" customHeight="1">
+      <c r="A10" t="n">
         <v>330</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its o***** number we get zero</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>opposite</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="A11" t="n">
         <v>331</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its opposite number we get z*****</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" ht="27.6" customHeight="1">
+      <c r="A12" t="n">
         <v>345</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>hands</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
+      <c r="A13" t="n">
         <v>346</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>possible</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
+      <c r="A14" t="n">
         <v>347</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of d***** system</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
+      <c r="A15" t="n">
         <v>348</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-    </row>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">
@@ -954,6 +935,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D12" pane="bottomLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="2">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -572,7 +640,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -626,7 +694,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -653,7 +721,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -680,7 +748,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -706,7 +774,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -732,7 +800,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -758,7 +826,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -772,7 +840,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>If we add the number N to its opposite number we get z*****</t>
+          <t>If we add the number N to its opposite number we get *****</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -784,7 +852,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>345</v>
       </c>
@@ -812,7 +880,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>346</v>
       </c>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>347</v>
       </c>
@@ -868,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>348</v>
       </c>
@@ -896,10 +964,9 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -911,7 +978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -923,7 +990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -934,7 +1001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
-      <selection activeCell="D12" pane="bottomLeft" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="2">
+    <row r="2" ht="28.95" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -640,7 +572,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -694,7 +626,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -721,7 +653,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7">
+    <row r="7" ht="41.4" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -748,7 +680,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -774,7 +706,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -800,7 +732,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -826,7 +758,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -852,7 +784,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>345</v>
       </c>
@@ -880,7 +812,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>346</v>
       </c>
@@ -908,7 +840,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>347</v>
       </c>
@@ -936,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>348</v>
       </c>
@@ -964,9 +896,10 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -978,7 +911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -990,7 +923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1001,7 +934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D12" pane="bottomLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="2">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -572,7 +640,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -626,7 +694,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -653,7 +721,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -680,7 +748,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -706,7 +774,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -732,7 +800,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -758,7 +826,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -784,7 +852,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>345</v>
       </c>
@@ -812,7 +880,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>346</v>
       </c>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>347</v>
       </c>
@@ -868,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>348</v>
       </c>
@@ -896,10 +964,9 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -911,7 +978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -923,7 +990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -934,7 +1001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,122 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Numeral System = Writing system for expressing n*****</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>The most common today numeral system is d***** [0:9]</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Numbers w***** invented for counting commodities (5 packages)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Numbers are not only an invention, it is a**** a discovery</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+  </si>
+  <si>
+    <t>philosophers</t>
+  </si>
+  <si>
+    <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>Number Line is a straight line that serves as a***** for real numbers</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>If we add the number N to its o***** number we get zero</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>If we add the number N to its opposite number we get *****</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>200421</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the possible origin of d***** system</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +265,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,440 +582,334 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D12" pane="bottomLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.95" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Numeral System = Writing system for expressing n*****</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>numbers</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>The most common today numeral system is d***** [0:9]</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Numbers w***** invented for counting commodities (5 packages)</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Numbers are not only an invention, it is a**** a discovery</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>philosophers</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="12" t="n">
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" t="n">
         <v>328</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>straight</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>329</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Number Line is a straight line that serves as a***** for real numbers</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>330</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>If we add the number N to its o***** number we get zero</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>opposite</t>
-        </is>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G10" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>331</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>If we add the number N to its opposite number we get *****</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G11" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>345</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>hands</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>346</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>possible</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>347</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the possible origin of d***** system</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>348</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="16"/>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -911,7 +921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -923,7 +933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -934,7 +944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91231506-3502-4628-B519-E476F70129C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -61,9 +67,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>Numbers w***** invented for counting commodities (5 packages)</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -125,33 +128,35 @@
   </si>
   <si>
     <t>system</t>
+  </si>
+  <si>
+    <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -265,51 +270,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -575,29 +589,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
-      <selection activeCell="D12" pane="bottomLeft" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,11 +630,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="2" spans="1:7">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>264</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -636,16 +646,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>265</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -657,16 +667,16 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>266</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -678,238 +688,237 @@
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="12" t="n">
+      <c r="F4" s="6"/>
+      <c r="G4" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>267</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="12" t="n">
+      <c r="F5" s="9"/>
+      <c r="G5" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>268</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="n"/>
-      <c r="G6" s="12" t="n">
+      <c r="F6" s="9"/>
+      <c r="G6" s="12">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7" spans="1:7">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>269</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="12">
+        <v>210216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>328</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="12" t="n">
-        <v>210216</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
-      <c r="A8" t="n">
-        <v>328</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="12">
+        <v>210310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>329</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
-      <c r="A9" t="n">
-        <v>329</v>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>330</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="12" t="n">
-        <v>210310</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
-      <c r="A10" t="n">
-        <v>330</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10">
+        <v>200310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>331</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="n">
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
-      <c r="A11" t="n">
-        <v>331</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
+    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>345</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="n">
-        <v>200310</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
-      <c r="A12" t="n">
-        <v>345</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>346</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
-      <c r="A13" t="n">
-        <v>346</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>347</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
-      <c r="A14" t="n">
-        <v>347</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
-      <c r="A15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>348</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7"/>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -921,7 +930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -933,7 +942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -944,7 +953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,162 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91231506-3502-4628-B519-E476F70129C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Numeral System = Writing system for expressing n*****</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>The most common today numeral system is d***** [0:9]</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Numbers are not only an invention, it is a**** a discovery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
-  </si>
-  <si>
-    <t>philosophers</t>
-  </si>
-  <si>
-    <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>Number Line is a straight line that serves as a***** for real numbers</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>If we add the number N to its o***** number we get zero</t>
-  </si>
-  <si>
-    <t>opposite</t>
-  </si>
-  <si>
-    <t>If we add the number N to its opposite number we get *****</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>Ten fingers on two h***** is the possible origin of decimal system</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>200421</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the p***** origin of decimal system</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the possible origin of d***** system</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -273,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -589,333 +459,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="28.95" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Numeral System = Writing system for expressing n*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>The most common today numeral system is d***** [0:9]</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12">
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="12">
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Numbers are not only an invention, it is a**** a discovery</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" ht="41.4" customHeight="1">
+      <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12">
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>philosophers</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="12" t="n">
         <v>210216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" ht="27.6" customHeight="1">
+      <c r="A8" t="n">
         <v>328</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" t="n">
         <v>329</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Number Line is a straight line that serves as a***** for real numbers</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" ht="27.6" customHeight="1">
+      <c r="A10" t="n">
         <v>330</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its o***** number we get zero</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>opposite</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="A11" t="n">
         <v>331</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its opposite number we get *****</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" ht="27.6" customHeight="1">
+      <c r="A12" t="n">
         <v>345</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>hands</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
+      <c r="A13" t="n">
         <v>346</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>possible</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
+      <c r="A14" t="n">
         <v>347</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of d***** system</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
+      <c r="A15" t="n">
         <v>348</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-    </row>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">
@@ -954,6 +935,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="2">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -572,7 +640,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -626,7 +694,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -653,7 +721,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -680,7 +748,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -706,7 +774,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -732,7 +800,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -758,7 +826,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -784,7 +852,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>345</v>
       </c>
@@ -812,7 +880,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>346</v>
       </c>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>347</v>
       </c>
@@ -868,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>348</v>
       </c>
@@ -896,10 +964,9 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -911,7 +978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -923,7 +990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -934,7 +1001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="2">
+    <row r="2" ht="28.95" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -640,7 +572,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -694,7 +626,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -721,7 +653,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7">
+    <row r="7" ht="41.4" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -748,7 +680,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -774,7 +706,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -800,7 +732,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -826,7 +758,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -852,7 +784,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>345</v>
       </c>
@@ -880,7 +812,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>346</v>
       </c>
@@ -908,7 +840,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>347</v>
       </c>
@@ -936,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>348</v>
       </c>
@@ -964,9 +896,10 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -978,7 +911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -990,7 +923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1001,7 +934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,122 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Numeral System = Writing system for expressing n*****</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>The most common today numeral system is d***** [0:9]</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Numbers are not only an invention, it is a**** a discovery</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+  </si>
+  <si>
+    <t>philosophers</t>
+  </si>
+  <si>
+    <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>Number Line is a straight line that serves as a***** for real numbers</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>If we add the number N to its o***** number we get zero</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>If we add the number N to its opposite number we get *****</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>200421</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the possible origin of d***** system</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +265,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,440 +582,334 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.95" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Numeral System = Writing system for expressing n*****</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>numbers</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>The most common today numeral system is d***** [0:9]</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Numbers are not only an invention, it is a**** a discovery</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>philosophers</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="12" t="n">
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" t="n">
         <v>328</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>straight</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>329</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Number Line is a straight line that serves as a***** for real numbers</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>330</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>If we add the number N to its o***** number we get zero</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>opposite</t>
-        </is>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G10" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>331</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>If we add the number N to its opposite number we get *****</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G11" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>345</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>hands</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>346</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>possible</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>347</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the possible origin of d***** system</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>348</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="16"/>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -911,7 +921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -923,7 +933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -934,7 +944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customHeight="1" ht="28.95" r="2">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -572,7 +640,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -626,7 +694,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -653,7 +721,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -680,7 +748,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -706,7 +774,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -732,7 +800,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -758,7 +826,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -784,7 +852,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>345</v>
       </c>
@@ -812,7 +880,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>346</v>
       </c>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>347</v>
       </c>
@@ -868,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>348</v>
       </c>
@@ -899,7 +967,7 @@
     <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -911,7 +979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -923,7 +991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -934,7 +1002,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.95" r="2">
+    <row r="2" ht="28.95" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
@@ -640,7 +572,7 @@
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
@@ -694,7 +626,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
@@ -721,7 +653,7 @@
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7">
+    <row r="7" ht="41.4" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
@@ -748,7 +680,7 @@
         <v>210216</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>328</v>
       </c>
@@ -774,7 +706,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>329</v>
       </c>
@@ -800,7 +732,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>330</v>
       </c>
@@ -826,7 +758,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>331</v>
       </c>
@@ -852,7 +784,7 @@
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>345</v>
       </c>
@@ -880,7 +812,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>346</v>
       </c>
@@ -908,7 +840,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>347</v>
       </c>
@@ -936,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>348</v>
       </c>
@@ -967,7 +899,7 @@
     <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -979,7 +911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -991,7 +923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1002,7 +934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -896,7 +964,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -964,6 +896,7 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,122 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Numeral System = Writing system for expressing n*****</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>The most common today numeral system is d***** [0:9]</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Numbers are not only an invention, it is a**** a discovery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
-  </si>
-  <si>
-    <t>philosophers</t>
-  </si>
-  <si>
-    <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>Number Line is a straight line that serves as a***** for real numbers</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>If we add the number N to its o***** number we get zero</t>
-  </si>
-  <si>
-    <t>opposite</t>
-  </si>
-  <si>
-    <t>If we add the number N to its opposite number we get *****</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>Ten fingers on two h***** is the possible origin of decimal system</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>200421</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the p***** origin of decimal system</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the possible origin of d***** system</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -265,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -582,334 +466,440 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.95" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="28.95" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Numeral System = Writing system for expressing n*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>The most common today numeral system is d***** [0:9]</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Numbers are not only an invention, it is a**** a discovery</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7" spans="1:7">
+    <row r="7" ht="41.4" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>philosophers</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="12" t="n">
         <v>210216</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>328</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
       </c>
       <c r="G8" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>329</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Number Line is a straight line that serves as a***** for real numbers</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
       </c>
       <c r="G9" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>330</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its o***** number we get zero</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>opposite</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>331</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its opposite number we get *****</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>345</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>hands</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>346</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>possible</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>347</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of d***** system</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>348</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -921,7 +911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -933,7 +923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -944,7 +934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +187,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -194,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,11 +467,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -854,35 +789,33 @@
     </row>
     <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
-        <v>345</v>
+        <v>1309</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>hands</t>
-        </is>
+          <t>n + opposite(n) = *****</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>200421</t>
+          <t>201004</t>
         </is>
       </c>
     </row>
     <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -894,12 +827,12 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>hands</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -910,7 +843,7 @@
     </row>
     <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -922,12 +855,12 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>Ten fingers on two hands is the possible origin of d***** system</t>
+          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -938,32 +871,61 @@
     </row>
     <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
+        <v>347</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of d***** system</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="27.6" customHeight="1">
+      <c r="A16" t="n">
         <v>348</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>200421</t>
         </is>
       </c>
     </row>
+    <row r="17"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -467,11 +467,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -557,7 +557,7 @@
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" s="6" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
@@ -688,11 +688,11 @@
         <v>328</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -714,16 +714,16 @@
         <v>329</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>Number Line is a straight line that serves as a***** for real numbers</t>
+          <t>Number Line is a straight line that serves as a*****n for real numbers</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -766,7 +766,7 @@
         <v>331</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -906,26 +906,82 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="17"/>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Image: Number line is a straight line</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>201007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Image: Number line serves as abstraction</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>201007</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -981,7 +1049,6 @@
         </is>
       </c>
     </row>
-    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1049,6 +981,7 @@
         </is>
       </c>
     </row>
+    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,137 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Numeral System = Writing system for expressing n*****</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>The most common today numeral system is d***** [0:9]</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
+  </si>
+  <si>
+    <t>Numbers are not only an invention, it is a**** a discovery</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+  </si>
+  <si>
+    <t>philosophers</t>
+  </si>
+  <si>
+    <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>Number Line is a straight line that serves as a*****n for real numbers</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>If we add the number N to its o***** number we get zero</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>If we add the number N to its opposite number we get *****</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>n + opposite(n) = *****</t>
+  </si>
+  <si>
+    <t>201004</t>
+  </si>
+  <si>
+    <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>200421</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the possible origin of d***** system</t>
+  </si>
+  <si>
+    <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Image: Number line is a straight line</t>
+  </si>
+  <si>
+    <t>201007</t>
+  </si>
+  <si>
+    <t>Image: Number line serves as abstraction</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,54 +280,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -469,522 +600,394 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="1"/>
+      <selection activeCell="C20" pane="bottomLeft" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="28.95" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.95" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Numeral System = Writing system for expressing n*****</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>numbers</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>The most common today numeral system is d***** [0:9]</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>were</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Numbers are not only an invention, it is a**** a discovery</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>philosophers</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="12" t="n">
         <v>210216</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" t="n">
         <v>328</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>straight</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>329</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Number Line is a straight line that serves as a*****n for real numbers</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>330</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>If we add the number N to its o***** number we get zero</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>opposite</t>
-        </is>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G10" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>331</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>If we add the number N to its opposite number we get *****</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G11" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>1309</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>n + opposite(n) = *****</t>
-        </is>
+      <c r="C12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>201004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>345</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>hands</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>346</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>possible</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>347</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the possible origin of d***** system</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="27.6" customHeight="1">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="16" spans="1:7">
       <c r="A16" t="n">
         <v>348</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="n">
         <v>1311</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Image: Number line is a straight line</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>straight</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>201007</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="n">
         <v>1312</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>Image: Number line serves as abstraction</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>abstraction</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>201007</t>
-        </is>
-      </c>
-    </row>
-    <row r="19"/>
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -996,7 +999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1008,7 +1011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1019,7 +1022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,137 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Numeral System = Writing system for expressing n*****</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>The most common today numeral system is d***** [0:9]</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
-  </si>
-  <si>
-    <t>Numbers are not only an invention, it is a**** a discovery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
-  </si>
-  <si>
-    <t>philosophers</t>
-  </si>
-  <si>
-    <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>Number Line is a straight line that serves as a*****n for real numbers</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>If we add the number N to its o***** number we get zero</t>
-  </si>
-  <si>
-    <t>opposite</t>
-  </si>
-  <si>
-    <t>If we add the number N to its opposite number we get *****</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>n + opposite(n) = *****</t>
-  </si>
-  <si>
-    <t>201004</t>
-  </si>
-  <si>
-    <t>Ten fingers on two h***** is the possible origin of decimal system</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>200421</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the p***** origin of decimal system</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the possible origin of d***** system</t>
-  </si>
-  <si>
-    <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>Image: Number line is a straight line</t>
-  </si>
-  <si>
-    <t>201007</t>
-  </si>
-  <si>
-    <t>Image: Number line serves as abstraction</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -280,54 +149,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -600,394 +469,522 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="1"/>
-      <selection activeCell="C20" pane="bottomLeft" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.95" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="28.95" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>264</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Numeral System = Writing system for expressing n*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>265</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>266</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>The most common today numeral system is d***** [0:9]</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>267</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>were</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>268</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Numbers are not only an invention, it is a**** a discovery</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210211</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="7" spans="1:7">
+    <row r="7" ht="41.4" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>269</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>philosophers</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="12" t="n">
         <v>210216</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>328</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
       </c>
       <c r="G8" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>329</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Number Line is a straight line that serves as a*****n for real numbers</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
       </c>
       <c r="G9" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>330</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its o***** number we get zero</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>opposite</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>331</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>If we add the number N to its opposite number we get *****</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v>200310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>1309</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
+      <c r="C12" s="13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>n + opposite(n) = *****</t>
+        </is>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>201004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>345</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>hands</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>346</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>possible</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>347</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="16" spans="1:7">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of d***** system</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>348</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Ten fingers on two hands is the possible origin of decimal s*****</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="n">
         <v>1311</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Image: Number line is a straight line</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>201007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="n">
         <v>1312</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7"/>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Image: Number line serves as abstraction</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>abstraction</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>201007</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -999,7 +996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1011,7 +1008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1022,7 +1019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +603,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Numeral System = Writing system for expressing n*****</t>
+          <t>Numeral System = Writing system for expressing n*******</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -562,7 +630,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>The first numeral systems w***** created at the same time as agriculture and commerce</t>
+          <t>The first numeral systems w*** created at the same time as agriculture and commerce</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -589,7 +657,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>The most common today numeral system is d***** [0:9]</t>
+          <t>The most common today numeral system is d******* [0:9]</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -616,7 +684,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Numbers w***** invented for counting commodities (ex: 5 packages)</t>
+          <t>Numbers w*** invented for counting commodities (ex: 5 packages)</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -670,7 +738,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
+          <t>The first systematic study of numbers as absractions is usually credited to the Greek p************** Pythagoras and Archimedes</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -697,7 +765,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
+          <t>Number Line is a s********* line that serves as abstraction for real numbers</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -749,7 +817,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>If we add the number N to its o***** number we get zero</t>
+          <t>If we add the number N to its o********* number we get zero</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -775,7 +843,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>If we add the number N to its opposite number we get *****</t>
+          <t>If we add the number N to its opposite number we get ****</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -801,7 +869,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>n + opposite(n) = *****</t>
+          <t>n + opposite(n) = *</t>
         </is>
       </c>
       <c r="E12" s="5" t="n">
@@ -827,7 +895,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Ten fingers on two h***** is the possible origin of decimal system</t>
+          <t>Ten fingers on two h**** is the possible origin of decimal system</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -855,7 +923,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
+          <t>Ten fingers on two hands is the p********* origin of decimal system</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -883,7 +951,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>Ten fingers on two hands is the possible origin of d***** system</t>
+          <t>Ten fingers on two hands is the possible origin of d******* system</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">

--- a/Questions/Mathematics/Numbers/Numeral System.xlsx
+++ b/Questions/Mathematics/Numbers/Numeral System.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -603,7 +535,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Numeral System = Writing system for expressing n*******</t>
+          <t>Numeral System = Writing system for expressing n*****</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -657,7 +589,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>The most common today numeral system is d******* [0:9]</t>
+          <t>The most common today numeral system is d***** [0:9]</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -738,7 +670,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>The first systematic study of numbers as absractions is usually credited to the Greek p************** Pythagoras and Archimedes</t>
+          <t>The first systematic study of numbers as absractions is usually credited to the Greek p***** Pythagoras and Archimedes</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -765,7 +697,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>Number Line is a s********* line that serves as abstraction for real numbers</t>
+          <t>Number Line is a s***** line that serves as abstraction for real numbers</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -817,7 +749,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>If we add the number N to its o********* number we get zero</t>
+          <t>If we add the number N to its o***** number we get zero</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -923,7 +855,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>Ten fingers on two hands is the p********* origin of decimal system</t>
+          <t>Ten fingers on two hands is the p***** origin of decimal system</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -951,7 +883,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>Ten fingers on two hands is the possible origin of d******* system</t>
+          <t>Ten fingers on two hands is the possible origin of d***** system</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
